--- a/rvc/static/xls/Plantilla_Beneficiarias_Identificacion.xlsx
+++ b/rvc/static/xls/Plantilla_Beneficiarias_Identificacion.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>PLANTILLA CARGA MASIVA EMPRESAS RVC - IDENTIFICACIÓN DE PRODUCTOS</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Correo</t>
+  </si>
+  <si>
+    <t>Convenio</t>
   </si>
   <si>
     <t>900739267</t>
@@ -70,6 +73,9 @@
     </r>
   </si>
   <si>
+    <t>COLOMBIA PRODUCTIVA</t>
+  </si>
+  <si>
     <t>900514524</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>860090365</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>CARLOS MARIO MONTOYA</t>
@@ -249,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -334,24 +343,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -366,12 +358,14 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -403,7 +397,9 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -430,7 +426,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -467,28 +463,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -500,19 +493,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -559,7 +549,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png" descr="image1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -830,17 +820,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -868,10 +858,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1119,12 +1109,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1411,7 +1401,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1439,10 +1429,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1787,120 +1777,128 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="12">
+      <c r="A8" t="s" s="13">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="12">
+      <c r="B8" t="s" s="13">
         <v>2</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" t="s" s="13">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="12">
+      <c r="D8" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="E8" t="s" s="12">
+      <c r="E8" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="F8" t="s" s="12">
+      <c r="F8" t="s" s="13">
         <v>6</v>
       </c>
-      <c r="G8" t="s" s="12">
+      <c r="G8" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="H8" t="s" s="12">
+      <c r="H8" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" t="s" s="13">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" t="s" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="I9" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="I9" t="s" s="14">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s" s="14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" t="s" s="14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s" s="14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="I10" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="I10" t="s" s="14">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="D11" s="16"/>
       <c r="E11" t="s" s="14">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s" s="18">
-        <v>13</v>
-      </c>
-      <c r="G11" s="19">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s" s="17">
+        <v>14</v>
+      </c>
+      <c r="G11" s="18">
         <v>320876543</v>
       </c>
       <c r="H11" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="I11" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="I11" t="s" s="14">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1928,310 +1926,310 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.6719" style="24" customWidth="1"/>
-    <col min="3" max="5" width="11.5" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20.6719" style="22" customWidth="1"/>
+    <col min="3" max="5" width="11.5" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="26">
-        <v>26</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" t="s" s="24">
+        <v>29</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="26">
-        <v>27</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" t="s" s="24">
+        <v>30</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="26">
-        <v>28</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" t="s" s="24">
+        <v>31</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" t="s" s="26">
-        <v>29</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" t="s" s="26">
-        <v>30</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" t="s" s="24">
+        <v>33</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="27">
+      <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" t="s" s="26">
-        <v>31</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="26">
-        <v>32</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" t="s" s="24">
+        <v>35</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="27">
+      <c r="A11" s="25">
         <v>3</v>
       </c>
-      <c r="B11" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="B11" t="s" s="24">
+        <v>36</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>1</v>
       </c>
-      <c r="B13" t="s" s="26">
-        <v>34</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" t="s" s="24">
+        <v>37</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>2</v>
       </c>
-      <c r="B14" t="s" s="26">
-        <v>35</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B14" t="s" s="24">
+        <v>38</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="27">
+      <c r="A15" s="25">
         <v>3</v>
       </c>
-      <c r="B15" t="s" s="26">
-        <v>36</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="B15" t="s" s="24">
+        <v>39</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="27">
+      <c r="A16" s="25">
         <v>4</v>
       </c>
-      <c r="B16" t="s" s="26">
-        <v>37</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="B16" t="s" s="24">
+        <v>40</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="27">
+      <c r="A17" s="25">
         <v>5</v>
       </c>
-      <c r="B17" t="s" s="26">
-        <v>38</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="B17" t="s" s="24">
+        <v>41</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>6</v>
       </c>
-      <c r="B18" t="s" s="26">
-        <v>39</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="B18" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="27">
+      <c r="A19" s="25">
         <v>7</v>
       </c>
-      <c r="B19" t="s" s="26">
-        <v>40</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="B19" t="s" s="24">
+        <v>43</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="27">
+      <c r="A20" s="25">
         <v>8</v>
       </c>
-      <c r="B20" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="B20" t="s" s="24">
+        <v>44</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="27">
+      <c r="A21" s="25">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="26">
-        <v>42</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="B21" t="s" s="24">
+        <v>45</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>10</v>
       </c>
-      <c r="B22" t="s" s="26">
-        <v>43</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="B22" t="s" s="24">
+        <v>46</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="27">
+      <c r="A23" s="25">
         <v>11</v>
       </c>
-      <c r="B23" t="s" s="26">
-        <v>44</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="B23" t="s" s="24">
+        <v>47</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="27">
+      <c r="A24" s="25">
         <v>12</v>
       </c>
-      <c r="B24" t="s" s="26">
-        <v>45</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="B24" t="s" s="24">
+        <v>48</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="27">
+      <c r="A25" s="25">
         <v>13</v>
       </c>
-      <c r="B25" t="s" s="26">
-        <v>46</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="B25" t="s" s="24">
+        <v>49</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>14</v>
       </c>
-      <c r="B26" t="s" s="26">
-        <v>47</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="B26" t="s" s="24">
+        <v>50</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="27">
+      <c r="A27" s="25">
         <v>15</v>
       </c>
-      <c r="B27" t="s" s="26">
-        <v>48</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="B27" t="s" s="24">
+        <v>51</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="27">
+      <c r="A28" s="25">
         <v>16</v>
       </c>
-      <c r="B28" t="s" s="26">
-        <v>49</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" t="s" s="24">
+        <v>52</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="27">
+      <c r="A29" s="25">
         <v>17</v>
       </c>
-      <c r="B29" t="s" s="26">
-        <v>50</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="B29" t="s" s="24">
+        <v>53</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rvc/static/xls/Plantilla_Beneficiarias_Identificacion.xlsx
+++ b/rvc/static/xls/Plantilla_Beneficiarias_Identificacion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Nit Beneficiaria</t>
   </si>
@@ -28,7 +28,13 @@
     <t xml:space="preserve">Nit Halonadora</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de Códigos</t>
+    <t xml:space="preserve">Cantidad de Códigos Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad de Códigos GLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad de Códigos Recaudo</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre Contacto</t>
@@ -154,16 +160,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:G2"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Nit Beneficiaria"/>
     <tableColumn id="2" name="Nit Halonadora"/>
-    <tableColumn id="3" name="Cantidad de Códigos"/>
-    <tableColumn id="4" name="Nombre Contacto"/>
-    <tableColumn id="5" name="Correo Contacto"/>
-    <tableColumn id="6" name="Teléfono Contacto"/>
-    <tableColumn id="7" name="Cargo Contacto"/>
+    <tableColumn id="3" name="Cantidad de Códigos Producto"/>
+    <tableColumn id="4" name="Cantidad de Códigos GLN"/>
+    <tableColumn id="5" name="Cantidad de Códigos Recaudo"/>
+    <tableColumn id="6" name="Nombre Contacto"/>
+    <tableColumn id="7" name="Correo Contacto"/>
+    <tableColumn id="8" name="Teléfono Contacto"/>
+    <tableColumn id="9" name="Cargo Contacto"/>
   </tableColumns>
 </table>
 </file>
@@ -173,23 +181,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,8 +224,14 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
